--- a/CSVs/Table3.xlsx
+++ b/CSVs/Table3.xlsx
@@ -456,10 +456,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.378008515632246</v>
+        <v>4.378008515635884</v>
       </c>
       <c r="D2">
-        <v>0.1120282443462975</v>
+        <v>0.1120282443460937</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -474,10 +474,10 @@
         <v>0.0004022495850327625</v>
       </c>
       <c r="I2">
-        <v>1219.539467952261</v>
+        <v>1219.539467950043</v>
       </c>
       <c r="J2">
-        <v>0.000819981662159002</v>
+        <v>0.0008199816621604935</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.0007026537434603464</v>
+        <v>0.0007026537434599023</v>
       </c>
       <c r="H3">
-        <v>0.0008013544428969104</v>
+        <v>0.0008013544428964036</v>
       </c>
       <c r="I3">
         <v>139.1019803881618</v>
@@ -516,13 +516,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>8.620460147045378</v>
+        <v>8.62046014704174</v>
       </c>
       <c r="D4">
-        <v>0.01343045924568526</v>
+        <v>0.01343045924570969</v>
       </c>
       <c r="E4">
-        <v>0.1916206178551593</v>
+        <v>0.1916206178555078</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -534,10 +534,10 @@
         <v>0.0007921986271113865</v>
       </c>
       <c r="I4">
-        <v>146.203979348346</v>
+        <v>146.2039793486119</v>
       </c>
       <c r="J4">
-        <v>0.006839759112283787</v>
+        <v>0.006839759112271346</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0003149017595966974</v>
+        <v>0.0003149017595965864</v>
       </c>
       <c r="H6">
-        <v>0.000368788859019035</v>
+        <v>0.000368788859018905</v>
       </c>
       <c r="I6">
         <v>14.02257747020425</v>
@@ -608,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>8.717039766368543</v>
+        <v>8.717039766372181</v>
       </c>
       <c r="D7">
-        <v>0.003152495021744629</v>
+        <v>0.003152495021738334</v>
       </c>
       <c r="E7">
-        <v>0.04497858433590723</v>
+        <v>0.04497858433581742</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0007024110033582165</v>
+        <v>0.0007024110033577724</v>
       </c>
       <c r="H7">
-        <v>0.0008010776054629375</v>
+        <v>0.0008010776054624306</v>
       </c>
       <c r="I7">
-        <v>1.33522061958284</v>
+        <v>1.335220619580411</v>
       </c>
       <c r="J7">
-        <v>0.7489399020159139</v>
+        <v>0.7489399020172762</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -650,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0007319420574246616</v>
+        <v>0.0007319420574249946</v>
       </c>
       <c r="H8">
-        <v>0.0007744310115759252</v>
+        <v>0.0007744310115762776</v>
       </c>
       <c r="I8">
         <v>1.543449401768253</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.001453988176051024</v>
+        <v>0.001453988176051135</v>
       </c>
       <c r="H9">
-        <v>0.001951957842357929</v>
+        <v>0.001951957842358078</v>
       </c>
       <c r="I9">
         <v>0.002563109021253771</v>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>0.001141417043233228</v>
+        <v>0.00114141704323345</v>
       </c>
       <c r="H10">
-        <v>0.001336740352222781</v>
+        <v>0.001336740352223041</v>
       </c>
       <c r="I10">
         <v>82408.72458393818</v>
@@ -742,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0.000928914305280748</v>
+        <v>0.0009289143052800819</v>
       </c>
       <c r="H11">
-        <v>0.001059397480672831</v>
+        <v>0.00105939748067207</v>
       </c>
       <c r="I11">
         <v>372211.4691854921</v>
@@ -802,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0.001756157484139376</v>
+        <v>0.001756157484139598</v>
       </c>
       <c r="H13">
-        <v>0.002357615715205877</v>
+        <v>0.002357615715206175</v>
       </c>
       <c r="I13">
         <v>321.5222219275826</v>

--- a/CSVs/Table3.xlsx
+++ b/CSVs/Table3.xlsx
@@ -456,10 +456,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.378008515635884</v>
+        <v>4.378008515632246</v>
       </c>
       <c r="D2">
-        <v>0.1120282443460937</v>
+        <v>0.1120282443462975</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -474,10 +474,10 @@
         <v>0.0004022495850327625</v>
       </c>
       <c r="I2">
-        <v>1219.539467950043</v>
+        <v>1219.539467952261</v>
       </c>
       <c r="J2">
-        <v>0.0008199816621604935</v>
+        <v>0.000819981662159002</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.0007026537434599023</v>
+        <v>0.0007026537434601243</v>
       </c>
       <c r="H3">
-        <v>0.0008013544428964036</v>
+        <v>0.000801354442896657</v>
       </c>
       <c r="I3">
         <v>139.1019803881618</v>
@@ -528,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0.0007487348573980146</v>
+        <v>0.0007487348573982366</v>
       </c>
       <c r="H4">
-        <v>0.0007921986271113865</v>
+        <v>0.0007921986271116217</v>
       </c>
       <c r="I4">
         <v>146.2039793486119</v>
@@ -558,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0.001453990146817019</v>
+        <v>0.00145399014681713</v>
       </c>
       <c r="H5">
-        <v>0.001951960488082428</v>
+        <v>0.001951960488082577</v>
       </c>
       <c r="I5">
         <v>0.2674206882717506</v>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0007024110033577724</v>
+        <v>0.0007024110033579944</v>
       </c>
       <c r="H7">
-        <v>0.0008010776054624306</v>
+        <v>0.0008010776054626841</v>
       </c>
       <c r="I7">
         <v>1.335220619580411</v>
@@ -650,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0007319420574249946</v>
+        <v>0.0007319420574248836</v>
       </c>
       <c r="H8">
-        <v>0.0007744310115762776</v>
+        <v>0.0007744310115761603</v>
       </c>
       <c r="I8">
         <v>1.543449401768253</v>
@@ -742,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0.0009289143052800819</v>
+        <v>0.000928914305280526</v>
       </c>
       <c r="H11">
-        <v>0.00105939748067207</v>
+        <v>0.001059397480672577</v>
       </c>
       <c r="I11">
         <v>372211.4691854921</v>
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>0.0007570447009103143</v>
+        <v>0.0007570447009104253</v>
       </c>
       <c r="H12">
-        <v>0.0008009908538347844</v>
+        <v>0.000800990853834902</v>
       </c>
       <c r="I12">
         <v>1517261.473911633</v>
@@ -805,7 +805,7 @@
         <v>0.001756157484139598</v>
       </c>
       <c r="H13">
-        <v>0.002357615715206175</v>
+        <v>0.002357615715206176</v>
       </c>
       <c r="I13">
         <v>321.5222219275826</v>
